--- a/UploadExcel/TD_STEP-JC.xlsx
+++ b/UploadExcel/TD_STEP-JC.xlsx
@@ -1,48 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC15AED5-264A-4211-AE26-71AB828F6969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>STEPUser</t>
+  </si>
+  <si>
+    <t>STEPPassword</t>
+  </si>
+  <si>
+    <t>STEPURL</t>
+  </si>
+  <si>
+    <t>JournalType</t>
+  </si>
+  <si>
+    <t>GroupCode</t>
+  </si>
+  <si>
+    <t>DigitalCode</t>
+  </si>
+  <si>
+    <t>PrintISSN</t>
+  </si>
+  <si>
+    <t>DigitalISSN</t>
+  </si>
+  <si>
+    <t>PrintCode</t>
+  </si>
+  <si>
+    <t>VCHIdentifier</t>
+  </si>
+  <si>
+    <t>EditorialCategory</t>
+  </si>
+  <si>
+    <t>EditorialApprover</t>
+  </si>
+  <si>
+    <t>FIApprover</t>
+  </si>
+  <si>
+    <t>SAPCC</t>
+  </si>
+  <si>
+    <t>ManualEnrichmentStatus</t>
+  </si>
+  <si>
+    <t>dchinnasam@wileyqa.com</t>
+  </si>
+  <si>
+    <t>Testauto@123</t>
+  </si>
+  <si>
+    <t>Corporate Products Lead</t>
+  </si>
+  <si>
+    <t>Christina Poggel - Corporate Products Lead (d234ae56-d7f7-4894-8216-8ee1cf981d26)</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>https://wiley-test-step.mdm.stibosystems.com/</t>
+  </si>
+  <si>
+    <t>VCH</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>B12V</t>
+  </si>
+  <si>
+    <t>E470</t>
+  </si>
+  <si>
+    <t>SAPCC_506074</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -50,12 +138,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -72,86 +154,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,183 +439,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="23.453125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="40.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.26953125" customWidth="1" min="4" max="4"/>
-    <col width="10.26953125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="11.90625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="15.6328125" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="15.6328125" customWidth="1" min="12" max="12"/>
-    <col width="13.1796875" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="22.08984375" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>STEPUser</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>STEPPassword</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>STEPURL</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>JournalType</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>GroupCode</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>DigitalCode</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>PrintISSN</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>DigitalISSN</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>PrintCode</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>VCHIdentifier</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>EditorialCategory</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>EditorialApprover</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>FIApprover</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>SAPCC</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>ManualEnrichmentStatus</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>dchinnasam@wileyqa.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>L&amp;df46Dy</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>https://wiley-qa-step.mdm.stibosystems.com/</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>NonVCH</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C07P</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C07D</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>30005183</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30005191</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>C07P</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>4083</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Corporate Products Lead</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Christina Poggel - Corporate Products Lead (d234ae56-d7f7-4894-8216-8ee1cf981d26)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PL_L1</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SAPCC_806072</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>30002753</v>
+      </c>
+      <c r="H2">
+        <v>30002761</v>
+      </c>
+      <c r="I2">
+        <v>4070</v>
+      </c>
+      <c r="J2">
+        <v>4070</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
